--- a/K2/xlsx2.xlsx
+++ b/K2/xlsx2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tabela 1" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t xml:space="preserve">Długość kroku</t>
   </si>
@@ -159,7 +159,94 @@
     <t xml:space="preserve">Nr iteracji</t>
   </si>
   <si>
-    <t>…</t>
+    <t>0,295804</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0,642317</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>0,195804</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0,742317</t>
+  </si>
+  <si>
+    <t>-0,00419635</t>
+  </si>
+  <si>
+    <t>0,245804</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0,692317</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0,792317</t>
+  </si>
+  <si>
+    <t>0,175093</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0,763028</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0,767317</t>
+  </si>
+  <si>
+    <t>-0,00168372</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0,869094</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0,779817</t>
+  </si>
+  <si>
+    <t>-0,0723944</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0,798383</t>
+  </si>
+  <si>
+    <t>0,00205365</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0,773567</t>
+  </si>
+  <si>
+    <t>-0,00107135</t>
+  </si>
+  <si>
+    <t>-0,0249602</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0,782572</t>
+  </si>
+  <si>
+    <t>0,000491154</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0,77513</t>
+  </si>
+  <si>
+    <t>-0,00124315</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0,774666</t>
+  </si>
+  <si>
+    <t>-0,000996097</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0,775407</t>
+  </si>
+  <si>
+    <t>0,000491287</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0,774928</t>
   </si>
   <si>
     <r>
@@ -743,7 +830,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="63">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -817,7 +904,6 @@
     <xf fontId="0" fillId="0" borderId="7" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="8" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="5" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="27" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -837,8 +923,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="15" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="30" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="30" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -882,6 +968,986 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" spc="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>x1_x2</c:v>
+          </c:tx>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showBubbleSize val="0"/>
+            <c:showCatName val="0"/>
+            <c:showLegendKey val="0"/>
+            <c:showPercent val="0"/>
+            <c:showSerName val="0"/>
+            <c:showVal val="0"/>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr/>
+              </a:p>
+            </c:txPr>
+          </c:dLbls>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Wykres!$D$3:$D$25</c:f>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Wykres!$E$3:$E$25</c:f>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="664968991"/>
+        <c:axId val="664968992"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="664968991"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="664968992"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="664968992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="664968991"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+  </c:chart>
+  <c:spPr bwMode="auto">
+    <a:xfrm>
+      <a:off x="7781924" y="947737"/>
+      <a:ext cx="4552949" cy="2724149"/>
+    </a:xfrm>
+    <a:prstGeom prst="rect">
+      <a:avLst/>
+    </a:prstGeom>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" spc="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="664968988" name="" hidden="0"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="7781924" y="947737"/>
+        <a:ext cx="4552949" cy="2724149"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5181,7 +6247,6 @@
       <c r="Y90" t="s">
         <v>15</v>
       </c>
-      <c r="Z90"/>
     </row>
     <row r="91">
       <c r="A91" s="14"/>
@@ -5264,7 +6329,6 @@
         <f>SUM(N3:N102)</f>
         <v>1</v>
       </c>
-      <c r="Z91"/>
     </row>
     <row r="92">
       <c r="A92" s="14"/>
@@ -14461,7 +15525,7 @@
       </c>
     </row>
     <row r="7" ht="14.25">
-      <c r="B7" s="39"/>
+      <c r="B7" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -14490,20 +15554,20 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="43" t="s">
+      <c r="C1" s="41"/>
+      <c r="D1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="44"/>
+      <c r="E1" s="43"/>
     </row>
     <row r="2" ht="18.75">
-      <c r="A2" s="45"/>
+      <c r="A2" s="44"/>
       <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
@@ -14518,94 +15582,380 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="46">
+      <c r="A3" s="45">
         <v>1</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48"/>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="49">
+      <c r="A4" s="48">
         <v>2</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="32"/>
+      <c r="B4" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="49">
+      <c r="A5" s="48">
         <v>3</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="32"/>
+      <c r="B5" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="49">
+      <c r="A6" s="48">
         <v>4</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="32"/>
+      <c r="B6" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="49">
+      <c r="A7" s="48">
         <v>5</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="32"/>
+      <c r="B7" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="49">
+      <c r="A8" s="48">
         <v>6</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="32"/>
+      <c r="B8" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="49">
+      <c r="A9" s="48">
         <v>7</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="32"/>
+      <c r="B9" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="49">
+      <c r="A10" s="48">
         <v>8</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="32"/>
+      <c r="B10" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="49">
+      <c r="A11" s="48">
         <v>9</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="32"/>
+      <c r="B11" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="50" t="s">
-        <v>18</v>
+      <c r="A12" s="49">
+        <v>10</v>
       </c>
       <c r="B12" s="33"/>
       <c r="C12" s="32"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="32"/>
+      <c r="D12" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="A13" s="48">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="A14" s="48">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="A15" s="49">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="A16" s="48">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="A17" s="48">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25">
+      <c r="A18" s="49">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25">
+      <c r="A19" s="48">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25">
+      <c r="A20" s="48">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25">
+      <c r="A21" s="49">
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25">
+      <c r="A22" s="48">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25">
+      <c r="A23" s="48">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25">
+      <c r="A24" s="49">
+        <v>22</v>
+      </c>
+      <c r="D24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25">
+      <c r="A25" s="48">
+        <v>23</v>
+      </c>
+      <c r="D25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -14617,6 +15967,7 @@
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="-1" fitToHeight="1" fitToWidth="1" horizontalDpi="600" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="600"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14652,40 +16003,40 @@
     <row r="2" ht="28.5">
       <c r="A2" s="23"/>
       <c r="B2" s="6" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" ht="15.75">
-      <c r="A3" s="51"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="56"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -14713,210 +16064,210 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="59"/>
+      <c r="A1" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="57"/>
+      <c r="D1" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="58"/>
     </row>
     <row r="2" ht="15.75">
-      <c r="A2" s="60"/>
-      <c r="B2" s="61" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="61" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="63" t="s">
-        <v>26</v>
+      <c r="A2" s="59"/>
+      <c r="B2" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="62" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="46"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="28"/>
       <c r="C3" s="27"/>
       <c r="D3" s="25"/>
       <c r="E3" s="27"/>
     </row>
     <row r="4">
-      <c r="A4" s="49"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="33"/>
       <c r="C4" s="32"/>
       <c r="D4" s="30"/>
       <c r="E4" s="32"/>
     </row>
     <row r="5">
-      <c r="A5" s="49"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="33"/>
       <c r="C5" s="32"/>
       <c r="D5" s="30"/>
       <c r="E5" s="32"/>
     </row>
     <row r="6">
-      <c r="A6" s="49"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="33"/>
       <c r="C6" s="32"/>
       <c r="D6" s="30"/>
       <c r="E6" s="32"/>
     </row>
     <row r="7">
-      <c r="A7" s="49"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="33"/>
       <c r="C7" s="32"/>
       <c r="D7" s="30"/>
       <c r="E7" s="32"/>
     </row>
     <row r="8">
-      <c r="A8" s="49"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="33"/>
       <c r="C8" s="32"/>
       <c r="D8" s="30"/>
       <c r="E8" s="32"/>
     </row>
     <row r="9">
-      <c r="A9" s="49"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="33"/>
       <c r="C9" s="32"/>
       <c r="D9" s="30"/>
       <c r="E9" s="32"/>
     </row>
     <row r="10">
-      <c r="A10" s="49"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="33"/>
       <c r="C10" s="32"/>
       <c r="D10" s="30"/>
       <c r="E10" s="32"/>
     </row>
     <row r="11">
-      <c r="A11" s="49"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="33"/>
       <c r="C11" s="32"/>
       <c r="D11" s="30"/>
       <c r="E11" s="32"/>
     </row>
     <row r="12">
-      <c r="A12" s="49"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="33"/>
       <c r="C12" s="32"/>
       <c r="D12" s="30"/>
       <c r="E12" s="32"/>
     </row>
     <row r="13">
-      <c r="A13" s="49"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="33"/>
       <c r="C13" s="32"/>
       <c r="D13" s="30"/>
       <c r="E13" s="32"/>
     </row>
     <row r="14">
-      <c r="A14" s="49"/>
+      <c r="A14" s="48"/>
       <c r="B14" s="33"/>
       <c r="C14" s="32"/>
       <c r="D14" s="30"/>
       <c r="E14" s="32"/>
     </row>
     <row r="15">
-      <c r="A15" s="49"/>
+      <c r="A15" s="48"/>
       <c r="B15" s="33"/>
       <c r="C15" s="32"/>
       <c r="D15" s="30"/>
       <c r="E15" s="32"/>
     </row>
     <row r="16">
-      <c r="A16" s="49"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="33"/>
       <c r="C16" s="32"/>
       <c r="D16" s="30"/>
       <c r="E16" s="32"/>
     </row>
     <row r="17">
-      <c r="A17" s="49"/>
+      <c r="A17" s="48"/>
       <c r="B17" s="33"/>
       <c r="C17" s="32"/>
       <c r="D17" s="30"/>
       <c r="E17" s="32"/>
     </row>
     <row r="18">
-      <c r="A18" s="49"/>
+      <c r="A18" s="48"/>
       <c r="B18" s="33"/>
       <c r="C18" s="32"/>
       <c r="D18" s="30"/>
       <c r="E18" s="32"/>
     </row>
     <row r="19">
-      <c r="A19" s="49"/>
+      <c r="A19" s="48"/>
       <c r="B19" s="33"/>
       <c r="C19" s="32"/>
       <c r="D19" s="30"/>
       <c r="E19" s="32"/>
     </row>
     <row r="20">
-      <c r="A20" s="49"/>
+      <c r="A20" s="48"/>
       <c r="B20" s="33"/>
       <c r="C20" s="32"/>
       <c r="D20" s="30"/>
       <c r="E20" s="32"/>
     </row>
     <row r="21">
-      <c r="A21" s="49"/>
+      <c r="A21" s="48"/>
       <c r="B21" s="33"/>
       <c r="C21" s="32"/>
       <c r="D21" s="30"/>
       <c r="E21" s="32"/>
     </row>
     <row r="22">
-      <c r="A22" s="49"/>
+      <c r="A22" s="48"/>
       <c r="B22" s="33"/>
       <c r="C22" s="32"/>
       <c r="D22" s="30"/>
       <c r="E22" s="32"/>
     </row>
     <row r="23">
-      <c r="A23" s="49"/>
+      <c r="A23" s="48"/>
       <c r="B23" s="33"/>
       <c r="C23" s="32"/>
       <c r="D23" s="30"/>
       <c r="E23" s="32"/>
     </row>
     <row r="24">
-      <c r="A24" s="49"/>
+      <c r="A24" s="48"/>
       <c r="B24" s="33"/>
       <c r="C24" s="32"/>
       <c r="D24" s="30"/>
       <c r="E24" s="32"/>
     </row>
     <row r="25">
-      <c r="A25" s="49"/>
+      <c r="A25" s="48"/>
       <c r="B25" s="33"/>
       <c r="C25" s="32"/>
       <c r="D25" s="30"/>
       <c r="E25" s="32"/>
     </row>
     <row r="26">
-      <c r="A26" s="49"/>
+      <c r="A26" s="48"/>
       <c r="B26" s="33"/>
       <c r="C26" s="32"/>
       <c r="D26" s="30"/>
       <c r="E26" s="32"/>
     </row>
     <row r="27">
-      <c r="A27" s="49"/>
+      <c r="A27" s="48"/>
       <c r="B27" s="33"/>
       <c r="C27" s="32"/>
       <c r="D27" s="30"/>
       <c r="E27" s="32"/>
     </row>
     <row r="28">
-      <c r="A28" s="49"/>
+      <c r="A28" s="48"/>
       <c r="B28" s="33"/>
       <c r="C28" s="32"/>
       <c r="D28" s="30"/>
